--- a/technologie-sieciowe-projekt/kable.xlsx
+++ b/technologie-sieciowe-projekt/kable.xlsx
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,8 +443,8 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>CEILING(B2*0.2,1)</f>
-        <v>6</v>
+        <f>CEILING(B2*0.2,1)+(4*C2)</f>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>CEILING(H2*0.2,1)</f>
+        <f>CEILING(H2*0.2,1)+(I2*4)</f>
         <v>4</v>
       </c>
       <c r="L2">
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>CEILING(M2*0.2,1)</f>
+        <f>CEILING(M2*0.2,1) + (N2*4)</f>
         <v>4</v>
       </c>
       <c r="R2">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <f>CEILING(S2*0.2,1)</f>
+        <f>CEILING(S2*0.2,1) + (T2*4)</f>
         <v>4</v>
       </c>
     </row>
@@ -500,8 +500,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f>CEILING(B3*0.2,1)</f>
-        <v>6</v>
+        <f t="shared" ref="D3:D21" si="0">CEILING(B3*0.2,1)+(4*C3)</f>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J48" si="0">CEILING(H3*0.2,1)</f>
+        <f t="shared" ref="J3:J48" si="1">CEILING(H3*0.2,1)+(I3*4)</f>
         <v>6</v>
       </c>
       <c r="L3">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O39" si="1">CEILING(M3*0.2,1)</f>
+        <f t="shared" ref="O3:O39" si="2">CEILING(M3*0.2,1) + (N3*4)</f>
         <v>6</v>
       </c>
       <c r="R3">
@@ -540,11 +540,11 @@
         <v>26</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T19" si="2">I3</f>
+        <f t="shared" ref="T3:T19" si="3">I3</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U45" si="3">CEILING(S3*0.2,1)</f>
+        <f t="shared" ref="U3:U45" si="4">CEILING(S3*0.2,1) + (T3*4)</f>
         <v>6</v>
       </c>
     </row>
@@ -559,8 +559,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>CEILING(B4*0.2,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -573,11 +573,11 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L39" si="4">L3+1</f>
+        <f t="shared" ref="L4:L39" si="5">L3+1</f>
         <v>3</v>
       </c>
       <c r="M4">
@@ -588,22 +588,22 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R48" si="5">R3+1</f>
+        <f t="shared" ref="R4:R45" si="6">R3+1</f>
         <v>3</v>
       </c>
       <c r="S4">
         <v>35</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -618,8 +618,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D21" si="6">CEILING(B5*0.2,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -632,11 +632,11 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M5">
@@ -647,11 +647,11 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="R5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="S5">
@@ -659,11 +659,11 @@
         <v>16</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -678,8 +678,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -692,11 +692,11 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M6">
@@ -707,11 +707,11 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="R6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="S6">
@@ -719,11 +719,11 @@
         <v>24</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -739,8 +739,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -753,11 +753,11 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="M7">
@@ -768,11 +768,11 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="R7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="S7">
@@ -780,11 +780,11 @@
         <v>33</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -800,8 +800,8 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="G8">
         <f>G7+1</f>
@@ -815,11 +815,11 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="M8">
@@ -830,11 +830,11 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="R8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="S8">
@@ -842,11 +842,11 @@
         <v>53</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -862,8 +862,8 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G48" si="9">G8+1</f>
@@ -877,11 +877,11 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="M9">
@@ -892,11 +892,11 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="S9">
@@ -904,11 +904,11 @@
         <v>62</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -924,8 +924,8 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="G10">
         <f t="shared" si="9"/>
@@ -939,11 +939,11 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M10">
@@ -954,11 +954,11 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="R10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="S10">
@@ -966,11 +966,11 @@
         <v>70</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -986,8 +986,8 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="G11">
         <f t="shared" si="9"/>
@@ -1001,11 +1001,11 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M11">
@@ -1016,11 +1016,11 @@
         <v>2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="R11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="S11">
@@ -1028,11 +1028,11 @@
         <v>55</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -1048,8 +1048,8 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
@@ -1063,11 +1063,11 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="M12">
@@ -1078,11 +1078,11 @@
         <v>3</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="R12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="S12">
@@ -1090,11 +1090,11 @@
         <v>64</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -1110,8 +1110,8 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
@@ -1125,11 +1125,11 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M13">
@@ -1140,11 +1140,11 @@
         <v>3</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="S13">
@@ -1152,11 +1152,11 @@
         <v>72</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -1172,8 +1172,8 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
@@ -1187,11 +1187,11 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M14">
@@ -1202,11 +1202,11 @@
         <v>3</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="R14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S14">
@@ -1214,11 +1214,11 @@
         <v>78</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -1234,8 +1234,8 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
@@ -1249,11 +1249,11 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M15">
@@ -1264,11 +1264,11 @@
         <v>3</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S15">
@@ -1276,12 +1276,12 @@
         <v>99</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1296,8 +1296,8 @@
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="M16">
@@ -1326,11 +1326,11 @@
         <v>3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="R16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="S16">
@@ -1338,11 +1338,11 @@
         <v>95</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -1357,8 +1357,8 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
@@ -1372,11 +1372,11 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M17">
@@ -1387,11 +1387,11 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="R17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="S17">
@@ -1399,11 +1399,11 @@
         <v>106</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
@@ -1418,8 +1418,8 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
@@ -1433,11 +1433,11 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="M18">
@@ -1448,11 +1448,11 @@
         <v>3</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="R18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="S18">
@@ -1460,11 +1460,11 @@
         <v>115</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -1479,8 +1479,8 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
@@ -1494,11 +1494,11 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M19">
@@ -1509,11 +1509,11 @@
         <v>3</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="R19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="S19">
@@ -1521,11 +1521,11 @@
         <v>98</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -1540,8 +1540,8 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
@@ -1555,11 +1555,11 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="M20">
@@ -1570,11 +1570,11 @@
         <v>3</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="R20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="S20">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
@@ -1600,8 +1600,8 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
@@ -1615,11 +1615,11 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M21">
@@ -1630,11 +1630,11 @@
         <v>3</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="R21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S21">
@@ -1645,14 +1645,14 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>338</v>
+        <v>474</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
@@ -1666,11 +1666,11 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M22">
@@ -1681,11 +1681,11 @@
         <v>3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="R22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="S22">
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M23">
@@ -1728,11 +1728,11 @@
         <v>3</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="R23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="S23">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
@@ -1760,11 +1760,11 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M24">
@@ -1775,11 +1775,11 @@
         <v>2</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="R24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S24">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="M25">
@@ -1822,11 +1822,11 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="R25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="S25">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
@@ -1855,11 +1855,11 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M26">
@@ -1870,11 +1870,11 @@
         <v>2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="R26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S26">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
@@ -1903,11 +1903,11 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f>CEILING(H27*0.2,1)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="M27">
@@ -1918,11 +1918,11 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="S27">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
@@ -1951,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="M28">
@@ -1965,11 +1965,11 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="S28">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
@@ -1998,11 +1998,11 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="M29">
@@ -2013,11 +2013,11 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="R29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="S29">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
@@ -2046,11 +2046,11 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="M30">
@@ -2061,11 +2061,11 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="R30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="S30">
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
@@ -2094,11 +2094,11 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="M31">
@@ -2109,11 +2109,11 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="S31">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
@@ -2142,11 +2142,11 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="M32">
@@ -2157,11 +2157,11 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="R32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="S32">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -2190,11 +2190,11 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="M33">
@@ -2205,11 +2205,11 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="R33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="S33">
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -2238,11 +2238,11 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="M34">
@@ -2253,11 +2253,11 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="R34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="S34">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
@@ -2286,11 +2286,11 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="M35">
@@ -2301,11 +2301,11 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="R35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="S35">
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
     </row>
@@ -2334,11 +2334,11 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="M36">
@@ -2349,11 +2349,11 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="R36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="S36">
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
@@ -2382,11 +2382,11 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="M37">
@@ -2397,11 +2397,11 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="R37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="S37">
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
     </row>
@@ -2430,11 +2430,11 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="M38">
@@ -2445,11 +2445,11 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="R38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="S38">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
@@ -2478,11 +2478,11 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="M39">
@@ -2493,11 +2493,11 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="R39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="S39">
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
@@ -2526,15 +2526,15 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <f>CEILING(H40*0.2,1)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="O40">
         <f>SUM(O2:O39)</f>
-        <v>570</v>
+        <v>782</v>
       </c>
       <c r="R40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="S40">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -2563,11 +2563,11 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="R41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S41">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
     </row>
@@ -2596,11 +2596,11 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="R42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="S42">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -2629,11 +2629,11 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="R43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="S43">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -2662,11 +2662,11 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="R44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="S44">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -2694,11 +2694,11 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="S45">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -2725,12 +2725,12 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="U46">
         <f>SUM(U2:U45)</f>
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="47" spans="7:21" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2763,14 +2763,14 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J49">
         <f>SUM(J2:J48)</f>
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2815,8 +2815,8 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <f>CEILING(B55*0.2,1)</f>
-        <v>6</v>
+        <f>CEILING(B55*0.2,1) + (C55*4)</f>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2863,15 +2863,15 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:D79" si="15">CEILING(B56*0.2,1)</f>
-        <v>6</v>
+        <f t="shared" ref="D56:D79" si="15">CEILING(B56*0.2,1) + (C56*4)</f>
+        <v>10</v>
       </c>
       <c r="G56">
         <f>G55+1</f>
         <v>2</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:J96" si="16">H3</f>
+        <f t="shared" ref="H56:J95" si="16">H3</f>
         <v>26</v>
       </c>
       <c r="I56">
@@ -2901,7 +2901,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" ref="A57:A120" si="18">A56+1</f>
+        <f t="shared" ref="A57:A79" si="18">A56+1</f>
         <v>3</v>
       </c>
       <c r="B57">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G57">
         <f t="shared" ref="G57:G95" si="19">G56+1</f>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G58">
         <f t="shared" si="19"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G59">
         <f t="shared" si="19"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G60">
         <f t="shared" si="19"/>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G61">
         <f t="shared" si="19"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G62">
         <f t="shared" si="19"/>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G63">
         <f t="shared" si="19"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <f t="shared" si="19"/>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="15"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <f t="shared" si="19"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <f t="shared" si="19"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="15"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <f t="shared" si="19"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="15"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <f t="shared" si="19"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L68">
         <f t="shared" si="20"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="17"/>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G69">
         <f t="shared" si="19"/>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="17"/>
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <f t="shared" si="19"/>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <f t="shared" si="19"/>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G72">
         <f t="shared" si="19"/>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <f t="shared" si="19"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G74">
         <f t="shared" si="19"/>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -4039,13 +4039,13 @@
       </c>
       <c r="O79">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D80">
         <f>SUM(D55:D79)</f>
-        <v>382</v>
+        <v>518</v>
       </c>
       <c r="G80">
         <f t="shared" si="19"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="7:15" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="O93">
         <f>SUM(O55:O92)</f>
-        <v>570</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="7:15" x14ac:dyDescent="0.25">
@@ -4549,13 +4549,13 @@
     <row r="96" spans="7:15" x14ac:dyDescent="0.25">
       <c r="J96">
         <f>SUM(J55:J95)</f>
-        <v>1072</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f>D22+J49+O40+U46+D80+J96+O93</f>
-        <v>5215</v>
+        <v>5923</v>
       </c>
     </row>
   </sheetData>
